--- a/data/장애인복지관 현황(2022.08.10.).xlsx
+++ b/data/장애인복지관 현황(2022.08.10.).xlsx
@@ -1,27 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\위드유_현정\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5844"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="장애인복지관" sheetId="1" r:id="rId4"/>
+    <sheet name="장애인복지관" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="GeocodeAddressColumn_">'장애인복지관'!$C$1</definedName>
+    <definedName name="GeocodeAddressColumn_">장애인복지관!$C$1</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="E15">
+    <comment ref="E15" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Geocode : 
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Geocode : 
 Sorry, no results were found for this address. Please retry by reformulating it or looking for wider results.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -29,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
   <si>
     <t>시설명</t>
   </si>
@@ -65,9 +82,6 @@
     <t>연제구 중앙대로 1150번길 15(연산동)</t>
   </si>
   <si>
-    <t>부산시</t>
-  </si>
-  <si>
     <t>사회복지법인 내원</t>
   </si>
   <si>
@@ -219,9 +233,6 @@
     <t>남구 못골번영로 70 (대연동)</t>
   </si>
   <si>
-    <t>사회복지법인 나사함복지재단</t>
-  </si>
-  <si>
     <t>사회복지법인
 나사함복지재단</t>
   </si>
@@ -239,9 +250,6 @@
     <t>북구 학사로 246 (금곡동)</t>
   </si>
   <si>
-    <t>(사)한국 뇌성마비복지회</t>
-  </si>
-  <si>
     <t>(사)한국뇌성마비복지회
 부산울산경남지회</t>
   </si>
@@ -374,47 +382,79 @@
     <t>정관면 병산로 42-15</t>
   </si>
   <si>
-    <t>사회복지법인 한성복지재단</t>
-  </si>
-  <si>
     <t>사회복지법인
 한성복지재단</t>
   </si>
   <si>
     <t>727-3088
 (727-3090)</t>
+  </si>
+  <si>
+    <t>연제구</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>북구</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>남구</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>북구</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기장군</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Gulim"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Gulim"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF082108"/>
       <name val="Gulim"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF082108"/>
       <name val="Gulim"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -422,7 +462,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -438,7 +478,13 @@
     </fill>
   </fills>
   <borders count="7">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
@@ -452,6 +498,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -466,6 +513,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -480,6 +528,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -494,6 +543,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -508,6 +558,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -522,80 +573,86 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -785,30 +842,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="31.14"/>
-    <col customWidth="1" min="2" max="2" width="10.43"/>
-    <col customWidth="1" min="3" max="3" width="25.14"/>
-    <col customWidth="1" min="4" max="5" width="14.43"/>
-    <col customWidth="1" min="6" max="6" width="22.71"/>
-    <col customWidth="1" min="7" max="7" width="26.43"/>
-    <col customWidth="1" min="8" max="8" width="17.14"/>
-    <col customWidth="1" min="9" max="28" width="8.71"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="28" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39.0" customHeight="1">
+    <row r="1" spans="1:8" ht="39" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,7 +893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="39.75" customHeight="1">
+    <row r="2" spans="1:8" ht="39.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -848,448 +907,448 @@
         <v>35.1906198</v>
       </c>
       <c r="E2" s="8">
-        <v>129.0814069</v>
+        <v>129.08140689999999</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8">
+        <v>35.195044799999998</v>
+      </c>
+      <c r="E3" s="8">
+        <v>129.00794260000001</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="8">
-        <v>35.1950448</v>
-      </c>
-      <c r="E3" s="8">
-        <v>129.0079426</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="6" t="s">
+    <row r="4" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" s="12">
-        <v>35.1107895</v>
+        <v>35.110789500000003</v>
       </c>
       <c r="E4" s="12">
         <v>129.0235831</v>
       </c>
       <c r="F4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="10" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" ht="17.25" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" s="8">
-        <v>35.1314294</v>
+        <v>35.131429400000002</v>
       </c>
       <c r="E5" s="8">
         <v>129.0404413</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" ht="17.25" customHeight="1">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="D6" s="8">
-        <v>35.0753352</v>
+        <v>35.075335199999998</v>
       </c>
       <c r="E6" s="8">
         <v>129.0660111</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" ht="17.25" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="D7" s="8">
-        <v>35.1640482</v>
+        <v>35.164048200000003</v>
       </c>
       <c r="E7" s="8">
         <v>129.0658195</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="10" t="s">
+    </row>
+    <row r="8" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="B8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="8">
+        <v>35.196977099999998</v>
+      </c>
+      <c r="E8" s="8">
+        <v>129.10043880000001</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="8" ht="17.25" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="8">
-        <v>35.1969771</v>
-      </c>
-      <c r="E8" s="8">
-        <v>129.1004388</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="6" t="s">
+    <row r="9" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="B9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="8">
+        <v>35.129244200000002</v>
+      </c>
+      <c r="E9" s="8">
+        <v>129.09918780000001</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="9" ht="17.25" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="8">
-        <v>35.1292442</v>
-      </c>
-      <c r="E9" s="8">
-        <v>129.0991878</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="6" t="s">
+    <row r="10" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>54</v>
       </c>
+      <c r="B10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="8">
+        <v>35.141341099999998</v>
+      </c>
+      <c r="E10" s="8">
+        <v>129.08906930000001</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="10" ht="17.25" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="8">
-        <v>35.1413411</v>
-      </c>
-      <c r="E10" s="8">
-        <v>129.0890693</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="6" t="s">
+    <row r="11" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="B11" s="6" t="s">
         <v>60</v>
       </c>
+      <c r="C11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="8">
+        <v>35.244277500000003</v>
+      </c>
+      <c r="E11" s="8">
+        <v>129.01009300000001</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="11" ht="17.25" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="8">
-        <v>35.2442775</v>
-      </c>
-      <c r="E11" s="8">
-        <v>129.010093</v>
-      </c>
-      <c r="F11" s="6" t="s">
+    <row r="12" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="12" ht="17.25" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="D12" s="8">
         <v>35.2671207</v>
       </c>
       <c r="E12" s="8">
-        <v>129.0175664</v>
+        <v>129.01756639999999</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>72</v>
       </c>
+      <c r="D13" s="8">
+        <v>35.210995199999999</v>
+      </c>
+      <c r="E13" s="8">
+        <v>129.12417009999999</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="13" ht="17.25" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="8">
-        <v>35.2109952</v>
-      </c>
-      <c r="E13" s="8">
-        <v>129.1241701</v>
-      </c>
-      <c r="F13" s="6" t="s">
+    <row r="14" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>78</v>
       </c>
+      <c r="D14" s="8">
+        <v>35.085445700000001</v>
+      </c>
+      <c r="E14" s="8">
+        <v>128.99301750000001</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="14" ht="17.25" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="8">
-        <v>35.0854457</v>
-      </c>
-      <c r="E14" s="8">
-        <v>128.9930175</v>
-      </c>
-      <c r="F14" s="6" t="s">
+    <row r="15" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="15" ht="17.25" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="D15" s="13">
-        <v>35.2196965</v>
+        <v>35.219696499999998</v>
       </c>
       <c r="E15" s="13">
         <v>129.098759</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A16" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>90</v>
       </c>
+      <c r="D16" s="8">
+        <v>35.159643299999999</v>
+      </c>
+      <c r="E16" s="8">
+        <v>129.10533369999999</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="16" ht="17.25" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="8">
-        <v>35.1596433</v>
-      </c>
-      <c r="E16" s="8">
-        <v>129.1053337</v>
-      </c>
-      <c r="F16" s="6" t="s">
+    <row r="17" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="17" ht="17.25" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="D17" s="8">
-        <v>35.1848938</v>
+        <v>35.184893799999998</v>
       </c>
       <c r="E17" s="8">
         <v>129.0009364</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A18" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="6" t="s">
+      <c r="C18" s="16" t="s">
         <v>101</v>
       </c>
+      <c r="D18" s="17">
+        <v>35.336440600000003</v>
+      </c>
+      <c r="E18" s="17">
+        <v>129.17351679999999</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="18" ht="17.25" customHeight="1">
-      <c r="A18" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="17">
-        <v>35.3364406</v>
-      </c>
-      <c r="E18" s="17">
-        <v>129.1735168</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" ht="17.25" customHeight="1"/>
-    <row r="20" ht="17.25" customHeight="1"/>
-    <row r="21" ht="17.25" customHeight="1"/>
-    <row r="22" ht="17.25" customHeight="1"/>
-    <row r="23" ht="17.25" customHeight="1"/>
-    <row r="24" ht="17.25" customHeight="1"/>
-    <row r="25" ht="17.25" customHeight="1"/>
-    <row r="26" ht="17.25" customHeight="1"/>
-    <row r="27" ht="17.25" customHeight="1"/>
-    <row r="28" ht="17.25" customHeight="1"/>
-    <row r="29" ht="17.25" customHeight="1"/>
-    <row r="30" ht="17.25" customHeight="1"/>
-    <row r="31" ht="17.25" customHeight="1"/>
-    <row r="32" ht="17.25" customHeight="1"/>
+    <row r="19" spans="1:8" ht="17.25" customHeight="1"/>
+    <row r="20" spans="1:8" ht="17.25" customHeight="1"/>
+    <row r="21" spans="1:8" ht="17.25" customHeight="1"/>
+    <row r="22" spans="1:8" ht="17.25" customHeight="1"/>
+    <row r="23" spans="1:8" ht="17.25" customHeight="1"/>
+    <row r="24" spans="1:8" ht="17.25" customHeight="1"/>
+    <row r="25" spans="1:8" ht="17.25" customHeight="1"/>
+    <row r="26" spans="1:8" ht="17.25" customHeight="1"/>
+    <row r="27" spans="1:8" ht="17.25" customHeight="1"/>
+    <row r="28" spans="1:8" ht="17.25" customHeight="1"/>
+    <row r="29" spans="1:8" ht="17.25" customHeight="1"/>
+    <row r="30" spans="1:8" ht="17.25" customHeight="1"/>
+    <row r="31" spans="1:8" ht="17.25" customHeight="1"/>
+    <row r="32" spans="1:8" ht="17.25" customHeight="1"/>
     <row r="33" ht="17.25" customHeight="1"/>
     <row r="34" ht="17.25" customHeight="1"/>
     <row r="35" ht="17.25" customHeight="1"/>
@@ -2259,10 +2318,9 @@
     <row r="999" ht="17.25" customHeight="1"/>
     <row r="1000" ht="17.25" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>